--- a/EOT_adv/OriginAddOriginEval.xlsx
+++ b/EOT_adv/OriginAddOriginEval.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78E12A2-D430-4D8D-AFD3-EECA0F32E85B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDFD832-101B-4D06-BDF3-467C8669459B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>Origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Predict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[0.24574444,0.03078889,0.6943, 0.02916667]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,6 +43,44 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.23092222 0.00394444 0.74837778 0.01675556]</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.43488889 0.01451111 0.48497778 0.06562222]</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predict [A,N,O,~]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.01104444,0.04905556,0.83804444,0.10185556]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.2412,0.03241111,0.69838889,0.028]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,0.4457,0.20386667,0.35043333]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -391,30 +425,126 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EOT_adv/OriginAddOriginEval.xlsx
+++ b/EOT_adv/OriginAddOriginEval.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDFD832-101B-4D06-BDF3-467C8669459B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD15A62-B706-46A0-8053-4C39726EE82F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>[0,0.4457,0.20386667,0.35043333]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.18978889,0.00398889,0.78272222,0.0235]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.00564444,0.04215556,0.82692222,0.12527778]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.000433333333,0.0323888889,0.737411111,0.229766667]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,12 +421,12 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -501,6 +513,9 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -509,6 +524,9 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -516,6 +534,9 @@
       </c>
       <c r="B10" t="s">
         <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">

--- a/EOT_adv/OriginAddOriginEval.xlsx
+++ b/EOT_adv/OriginAddOriginEval.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD15A62-B706-46A0-8053-4C39726EE82F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE1E649-AB2D-4F98-ACE2-77A8A6AB19C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>[0.000433333333,0.0323888889,0.737411111,0.229766667]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.35967778,0.011,0.55721111 0.07211111]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.000333333333,0.373155556,0.263200000,0.363311111]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.00102222,0.02312222,0.74004444,0.23581111]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +433,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,6 +558,9 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -554,6 +569,9 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -561,6 +579,9 @@
       </c>
       <c r="B13" t="s">
         <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
